--- a/biology/Botanique/William_Wilson_Saunders/William_Wilson_Saunders.xlsx
+++ b/biology/Botanique/William_Wilson_Saunders/William_Wilson_Saunders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Wilson Saunders est un agent d’assurances, un botaniste et un entomologiste britannique, né le 4 juin 1809 à Little London (en) près de Wendover et mort le 13 septembre 1879 à Worthing.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille comme assureur à la Lloyd's de Londres. Il préside la Royal Entomological Society en 1841-1842 et en 1856-1857. Il est le trésorier de la Linnean Society of London de 1861 à 1873 et membre de la Royal Society (1853). Il s’intéresse principalement aux lépidoptères et aux hyménoptères mais sa riche collection contenait des insectes de tout ordre. Francis Walker (1809-1874) décrit les diptères de sa collection sous le titre d’Insecta Saundersiana.
 Saunders, vivant à Reigate, était aussi un horticulteur réputé.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 (en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « William Wilson Sanders » (voir la liste des auteurs).</t>
